--- a/Elite Dangerous Star Types.xlsx
+++ b/Elite Dangerous Star Types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a1649c265d9e8a1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADFEF5B-463A-4AB3-8A61-7749BB8E6C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{FADFEF5B-463A-4AB3-8A61-7749BB8E6C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4FEF628-C9E6-4D61-8EF3-7FA876F3659C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DF6E2DC-A8D2-47FD-B4FE-86274334FF16}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DF6E2DC-A8D2-47FD-B4FE-86274334FF16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Spectral Class</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>VII (white dwarfs)</t>
+  </si>
+  <si>
+    <t>IIIa (luminous regular giant)</t>
+  </si>
+  <si>
+    <t>IIIb (less luminous regular giant</t>
   </si>
 </sst>
 </file>
@@ -234,21 +240,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +565,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +573,7 @@
     <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -589,16 +586,16 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="1"/>
@@ -618,16 +615,16 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -638,16 +635,16 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -658,13 +655,13 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -675,10 +672,13 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -689,10 +689,13 @@
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
